--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vtn-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vtn-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Vtn</t>
   </si>
   <si>
     <t>Itga5</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>6.597131</v>
+        <v>2.767552</v>
       </c>
       <c r="H2">
-        <v>19.791393</v>
+        <v>8.302655999999999</v>
       </c>
       <c r="I2">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="J2">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N2">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O2">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P2">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q2">
-        <v>206.0215709003713</v>
+        <v>127.0470834390187</v>
       </c>
       <c r="R2">
-        <v>1854.194138103342</v>
+        <v>1143.423750951168</v>
       </c>
       <c r="S2">
-        <v>0.03479986429231235</v>
+        <v>0.01861263786402069</v>
       </c>
       <c r="T2">
-        <v>0.03479986429231235</v>
+        <v>0.0186126378640207</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>6.597131</v>
+        <v>2.767552</v>
       </c>
       <c r="H3">
-        <v>19.791393</v>
+        <v>8.302655999999999</v>
       </c>
       <c r="I3">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="J3">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>121.337348</v>
       </c>
       <c r="O3">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P3">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q3">
-        <v>266.8261266495294</v>
+        <v>111.9358067106987</v>
       </c>
       <c r="R3">
-        <v>2401.435139845764</v>
+        <v>1007.422260396288</v>
       </c>
       <c r="S3">
-        <v>0.04507058632970668</v>
+        <v>0.01639880726048523</v>
       </c>
       <c r="T3">
-        <v>0.04507058632970669</v>
+        <v>0.01639880726048523</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>6.597131</v>
+        <v>2.767552</v>
       </c>
       <c r="H4">
-        <v>19.791393</v>
+        <v>8.302655999999999</v>
       </c>
       <c r="I4">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="J4">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N4">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O4">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P4">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q4">
-        <v>75.85744285909367</v>
+        <v>35.31893127584</v>
       </c>
       <c r="R4">
-        <v>682.716985731843</v>
+        <v>317.87038148256</v>
       </c>
       <c r="S4">
-        <v>0.01281336078315254</v>
+        <v>0.005174290190588905</v>
       </c>
       <c r="T4">
-        <v>0.01281336078315254</v>
+        <v>0.005174290190588906</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>6.597131</v>
+        <v>2.767552</v>
       </c>
       <c r="H5">
-        <v>19.791393</v>
+        <v>8.302655999999999</v>
       </c>
       <c r="I5">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="J5">
-        <v>0.1209543635982448</v>
+        <v>0.04706493447833917</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N5">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O5">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P5">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q5">
-        <v>167.3668472990147</v>
+        <v>46.95638503641599</v>
       </c>
       <c r="R5">
-        <v>1506.301625691132</v>
+        <v>422.6074653277439</v>
       </c>
       <c r="S5">
-        <v>0.02827055219307318</v>
+        <v>0.006879199163244341</v>
       </c>
       <c r="T5">
-        <v>0.02827055219307319</v>
+        <v>0.006879199163244342</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>63.15952</v>
       </c>
       <c r="I6">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="J6">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N6">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O6">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P6">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q6">
-        <v>657.4688061478755</v>
+        <v>966.4657679913956</v>
       </c>
       <c r="R6">
-        <v>5917.21925533088</v>
+        <v>8698.19191192256</v>
       </c>
       <c r="S6">
-        <v>0.1110554838038731</v>
+        <v>0.14158906179244</v>
       </c>
       <c r="T6">
-        <v>0.1110554838038731</v>
+        <v>0.14158906179244</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>63.15952</v>
       </c>
       <c r="I7">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="J7">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>121.337348</v>
       </c>
       <c r="O7">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P7">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q7">
-        <v>851.5120730836624</v>
+        <v>851.5120730836622</v>
       </c>
       <c r="R7">
-        <v>7663.608657752961</v>
+        <v>7663.60865775296</v>
       </c>
       <c r="S7">
-        <v>0.1438320485426587</v>
+        <v>0.1247481282067765</v>
       </c>
       <c r="T7">
-        <v>0.1438320485426587</v>
+        <v>0.1247481282067765</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>63.15952</v>
       </c>
       <c r="I8">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="J8">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N8">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O8">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P8">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q8">
-        <v>242.0809732497245</v>
+        <v>268.6762821794667</v>
       </c>
       <c r="R8">
-        <v>2178.72875924752</v>
+        <v>2418.0865396152</v>
       </c>
       <c r="S8">
-        <v>0.04089079109543924</v>
+        <v>0.03936158318233391</v>
       </c>
       <c r="T8">
-        <v>0.04089079109543924</v>
+        <v>0.03936158318233392</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>63.15952</v>
       </c>
       <c r="I9">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="J9">
-        <v>0.3859970617919927</v>
+        <v>0.3580298485789791</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N9">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O9">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P9">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q9">
-        <v>534.1114563951645</v>
+        <v>357.20409707872</v>
       </c>
       <c r="R9">
-        <v>4807.00310755648</v>
+        <v>3214.83687370848</v>
       </c>
       <c r="S9">
-        <v>0.09021873835002163</v>
+        <v>0.05233107539742875</v>
       </c>
       <c r="T9">
-        <v>0.09021873835002163</v>
+        <v>0.05233107539742876</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.89201066666667</v>
+        <v>34.97741266666667</v>
       </c>
       <c r="H10">
-        <v>80.67603200000001</v>
+        <v>104.932238</v>
       </c>
       <c r="I10">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="J10">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N10">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O10">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P10">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q10">
-        <v>839.8096509249565</v>
+        <v>1605.671100504341</v>
       </c>
       <c r="R10">
-        <v>7558.286858324608</v>
+        <v>14451.03990453907</v>
       </c>
       <c r="S10">
-        <v>0.141855349203679</v>
+        <v>0.2352338512104116</v>
       </c>
       <c r="T10">
-        <v>0.141855349203679</v>
+        <v>0.2352338512104117</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>26.89201066666667</v>
+        <v>34.97741266666667</v>
       </c>
       <c r="H11">
-        <v>80.67603200000001</v>
+        <v>104.932238</v>
       </c>
       <c r="I11">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="J11">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>121.337348</v>
       </c>
       <c r="O11">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P11">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q11">
-        <v>1087.668418893682</v>
+        <v>1414.688830958314</v>
       </c>
       <c r="R11">
-        <v>9789.015770043139</v>
+        <v>12732.19947862483</v>
       </c>
       <c r="S11">
-        <v>0.1837220889400852</v>
+        <v>0.2072545877335354</v>
       </c>
       <c r="T11">
-        <v>0.1837220889400852</v>
+        <v>0.2072545877335354</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>26.89201066666667</v>
+        <v>34.97741266666667</v>
       </c>
       <c r="H12">
-        <v>80.67603200000001</v>
+        <v>104.932238</v>
       </c>
       <c r="I12">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="J12">
-        <v>0.4930485746097625</v>
+        <v>0.5948251867999219</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N12">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O12">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P12">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q12">
-        <v>309.2191382152036</v>
+        <v>446.3745700824035</v>
       </c>
       <c r="R12">
-        <v>2782.972243936832</v>
+        <v>4017.371130741631</v>
       </c>
       <c r="S12">
-        <v>0.05223134645293333</v>
+        <v>0.06539471823955376</v>
       </c>
       <c r="T12">
-        <v>0.05223134645293333</v>
+        <v>0.06539471823955377</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>34.97741266666667</v>
+      </c>
+      <c r="H13">
+        <v>104.932238</v>
+      </c>
+      <c r="I13">
+        <v>0.5948251867999219</v>
+      </c>
+      <c r="J13">
+        <v>0.5948251867999219</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>16.966758</v>
+      </c>
+      <c r="N13">
+        <v>50.900274</v>
+      </c>
+      <c r="O13">
+        <v>0.1461640017030168</v>
+      </c>
+      <c r="P13">
+        <v>0.1461640017030168</v>
+      </c>
+      <c r="Q13">
+        <v>593.4532961814681</v>
+      </c>
+      <c r="R13">
+        <v>5341.079665633212</v>
+      </c>
+      <c r="S13">
+        <v>0.08694202961642107</v>
+      </c>
+      <c r="T13">
+        <v>0.08694202961642108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>26.89201066666667</v>
-      </c>
-      <c r="H13">
-        <v>80.67603200000001</v>
-      </c>
-      <c r="I13">
-        <v>0.4930485746097625</v>
-      </c>
-      <c r="J13">
-        <v>0.4930485746097625</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>25.36964133333333</v>
-      </c>
-      <c r="N13">
-        <v>76.108924</v>
-      </c>
-      <c r="O13">
-        <v>0.2337290805561597</v>
-      </c>
-      <c r="P13">
-        <v>0.2337290805561597</v>
-      </c>
-      <c r="Q13">
-        <v>682.2406653455076</v>
-      </c>
-      <c r="R13">
-        <v>6140.165988109568</v>
-      </c>
-      <c r="S13">
-        <v>0.1152397900130649</v>
-      </c>
-      <c r="T13">
-        <v>0.1152397900130649</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.004706</v>
+      </c>
+      <c r="H14">
+        <v>0.014118</v>
+      </c>
+      <c r="I14">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="J14">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>45.90594266666667</v>
+      </c>
+      <c r="N14">
+        <v>137.717828</v>
+      </c>
+      <c r="O14">
+        <v>0.3954672001633582</v>
+      </c>
+      <c r="P14">
+        <v>0.3954672001633583</v>
+      </c>
+      <c r="Q14">
+        <v>0.2160333661893334</v>
+      </c>
+      <c r="R14">
+        <v>1.944300295704</v>
+      </c>
+      <c r="S14">
+        <v>3.164929648587683E-05</v>
+      </c>
+      <c r="T14">
+        <v>3.164929648587684E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.004706</v>
+      </c>
+      <c r="H15">
+        <v>0.014118</v>
+      </c>
+      <c r="I15">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="J15">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>40.44578266666667</v>
+      </c>
+      <c r="N15">
+        <v>121.337348</v>
+      </c>
+      <c r="O15">
+        <v>0.3484294080560655</v>
+      </c>
+      <c r="P15">
+        <v>0.3484294080560656</v>
+      </c>
+      <c r="Q15">
+        <v>0.1903378532293333</v>
+      </c>
+      <c r="R15">
+        <v>1.713040679064</v>
+      </c>
+      <c r="S15">
+        <v>2.788485526842621E-05</v>
+      </c>
+      <c r="T15">
+        <v>2.788485526842621E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.004706</v>
+      </c>
+      <c r="H16">
+        <v>0.014118</v>
+      </c>
+      <c r="I16">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="J16">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>12.761795</v>
+      </c>
+      <c r="N16">
+        <v>38.28538500000001</v>
+      </c>
+      <c r="O16">
+        <v>0.1099393900775594</v>
+      </c>
+      <c r="P16">
+        <v>0.1099393900775594</v>
+      </c>
+      <c r="Q16">
+        <v>0.06005700727</v>
+      </c>
+      <c r="R16">
+        <v>0.5405130654300001</v>
+      </c>
+      <c r="S16">
+        <v>8.798465082828214E-06</v>
+      </c>
+      <c r="T16">
+        <v>8.798465082828216E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.004706</v>
+      </c>
+      <c r="H17">
+        <v>0.014118</v>
+      </c>
+      <c r="I17">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="J17">
+        <v>8.003014275976175E-05</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>16.966758</v>
+      </c>
+      <c r="N17">
+        <v>50.900274</v>
+      </c>
+      <c r="O17">
+        <v>0.1461640017030168</v>
+      </c>
+      <c r="P17">
+        <v>0.1461640017030168</v>
+      </c>
+      <c r="Q17">
+        <v>0.079845563148</v>
+      </c>
+      <c r="R17">
+        <v>0.7186100683319999</v>
+      </c>
+      <c r="S17">
+        <v>1.169752592263049E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.16975259226305E-05</v>
       </c>
     </row>
   </sheetData>
